--- a/data/points.xlsx
+++ b/data/points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthony/Desktop/survivor/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8B1E919-353E-8540-9448-DBF97018BC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4CFA6D-EEF9-3C47-BE3D-91C3AA1106C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5380" yWindow="500" windowWidth="15100" windowHeight="16340" xr2:uid="{60DAC2B1-B95B-A647-A981-E108943B87AF}"/>
   </bookViews>
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB85C1F-FC4B-E145-97AE-87B186CB81CF}">
   <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138:A146"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1650,7 +1650,7 @@
         <v>30</v>
       </c>
       <c r="B100" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
